--- a/data/example_1.xlsx
+++ b/data/example_1.xlsx
@@ -125,22 +125,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>64.5</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -180,16 +180,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
@@ -198,10 +198,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -212,25 +212,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -241,25 +241,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -267,7 +267,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -279,16 +279,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -296,28 +296,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -325,28 +325,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -354,28 +354,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>35.5</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -383,28 +383,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -415,22 +415,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>35.5</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -441,26 +439,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>52</v>
+      </c>
       <c r="I13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -468,7 +468,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -477,19 +477,19 @@
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -497,28 +497,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -529,25 +529,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -555,13 +555,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -570,13 +570,13 @@
         <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -584,28 +584,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>58</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -613,25 +611,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -648,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
@@ -660,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -674,25 +672,25 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>37</v>
+        <v>64.5</v>
       </c>
       <c r="I21" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -700,28 +698,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -735,22 +733,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -758,28 +756,26 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>46</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -787,26 +783,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
       <c r="G25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -817,23 +815,25 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>65</v>
+      </c>
       <c r="I26" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -841,25 +841,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>64.5</v>
+        <v>64</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
@@ -876,22 +876,22 @@
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -914,13 +914,13 @@
         <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -934,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
         <v>5</v>
@@ -946,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="H30" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -960,25 +960,23 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
       </c>
       <c r="E31" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -989,25 +987,25 @@
         <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1015,28 +1013,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
       </c>
       <c r="F33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1050,19 +1048,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
       </c>
       <c r="G34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I34" s="1">
         <v>3</v>
@@ -1076,25 +1074,25 @@
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1105,22 +1103,22 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I36" s="1">
         <v>3</v>
@@ -1131,28 +1129,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1">
         <v>4</v>
       </c>
-      <c r="H37" s="1">
-        <v>65</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1163,25 +1159,25 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1192,23 +1188,25 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>34</v>
+      </c>
       <c r="I39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1222,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1">
         <v>5</v>
@@ -1234,10 +1232,10 @@
         <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1248,23 +1246,25 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>36</v>
+      </c>
       <c r="I41" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1272,16 +1272,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1">
         <v>5</v>
@@ -1290,10 +1290,10 @@
         <v>2</v>
       </c>
       <c r="H42" s="1">
-        <v>34</v>
+        <v>64.5</v>
       </c>
       <c r="I42" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1301,28 +1301,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
